--- a/Edu connect.xlsx
+++ b/Edu connect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\SDET\Edu connect project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481359AC-F1F5-4F4B-9948-3ABE6DE13235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A111D6-0683-4234-8843-D5DCC031120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5CF80C3-4EBD-4BF8-8816-9F0D87C4B922}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5CF80C3-4EBD-4BF8-8816-9F0D87C4B922}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="557">
   <si>
     <t>Project name</t>
   </si>
@@ -1684,9 +1684,6 @@
     <t xml:space="preserve">Browser name </t>
   </si>
   <si>
-    <t>Evidence</t>
-  </si>
-  <si>
     <t>Bug id</t>
   </si>
   <si>
@@ -1955,6 +1952,24 @@
   <si>
     <t xml:space="preserve">all links in the Homepage are not functioning
 </t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Attachments</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2083,35 +2098,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2130,27 +2142,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3521,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A31B36-A5A9-4D45-BA2F-7EDA2ECD2FF9}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3745,10 +3736,10 @@
       <c r="C19" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3762,10 +3753,10 @@
       <c r="C20" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3779,10 +3770,10 @@
       <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3796,10 +3787,10 @@
       <c r="C22" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3813,10 +3804,10 @@
       <c r="C23" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3830,10 +3821,10 @@
       <c r="C24" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5467,7 +5458,7 @@
         <v>214</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>250</v>
@@ -5494,7 +5485,7 @@
         <v>214</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>253</v>
@@ -6621,13 +6612,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6640,8 +6631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510BC989-A76A-46AC-B10F-754DECDA7C0D}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6658,42 +6649,42 @@
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>546</v>
+      <c r="K1" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6711,17 +6702,19 @@
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>92</v>
@@ -6729,35 +6722,37 @@
       <c r="G3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>547</v>
+      <c r="L3" s="15" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>168</v>
@@ -6765,33 +6760,35 @@
       <c r="G4" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="19" t="s">
-        <v>547</v>
+      <c r="L4" s="15" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>98</v>
@@ -6799,33 +6796,35 @@
       <c r="G5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="19" t="s">
-        <v>547</v>
+      <c r="L5" s="15" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>103</v>
@@ -6833,33 +6832,35 @@
       <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="21" t="s">
-        <v>547</v>
+      <c r="L6" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>128</v>
@@ -6867,33 +6868,35 @@
       <c r="G7" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="21" t="s">
-        <v>547</v>
+      <c r="L7" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C8" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>107</v>
@@ -6901,33 +6904,35 @@
       <c r="G8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="21" t="s">
-        <v>547</v>
+      <c r="L8" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C9" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>90</v>
@@ -6935,35 +6940,37 @@
       <c r="G9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>547</v>
+        <v>491</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>177</v>
@@ -6971,33 +6978,35 @@
       <c r="G10" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="21" t="s">
-        <v>547</v>
+      <c r="L10" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="C11" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>180</v>
@@ -7005,33 +7014,35 @@
       <c r="G11" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="21" t="s">
-        <v>548</v>
+      <c r="L11" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>186</v>
@@ -7039,67 +7050,71 @@
       <c r="G12" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="21" t="s">
-        <v>550</v>
+      <c r="L12" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C13" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="H13" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="21" t="s">
-        <v>548</v>
+      <c r="L13" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="C14" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>273</v>
@@ -7107,33 +7122,35 @@
       <c r="G14" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="21" t="s">
-        <v>547</v>
+      <c r="L14" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C15" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>330</v>
@@ -7141,33 +7158,35 @@
       <c r="G15" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="21" t="s">
-        <v>547</v>
+      <c r="L15" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C16" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>337</v>
@@ -7175,67 +7194,71 @@
       <c r="G16" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="21" t="s">
-        <v>547</v>
+      <c r="L16" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C17" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>492</v>
-      </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="21" t="s">
-        <v>547</v>
+      <c r="L17" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C18" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>363</v>
@@ -7243,67 +7266,71 @@
       <c r="G18" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="21" t="s">
-        <v>547</v>
+      <c r="L18" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>379</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H19" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="21" t="s">
-        <v>547</v>
+      <c r="L19" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>386</v>
@@ -7311,67 +7338,71 @@
       <c r="G20" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="21" t="s">
-        <v>547</v>
+      <c r="L20" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C21" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>417</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="H21" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="21" t="s">
-        <v>548</v>
+      <c r="L21" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>423</v>
@@ -7379,33 +7410,35 @@
       <c r="G22" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="21" t="s">
-        <v>548</v>
+      <c r="L22" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>422</v>
@@ -7413,55 +7446,58 @@
       <c r="G23" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="21" t="s">
-        <v>548</v>
+      <c r="L23" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>548</v>
+        <v>491</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Edu connect.xlsx
+++ b/Edu connect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\SDET\Edu connect project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\Edu-connect-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A111D6-0683-4234-8843-D5DCC031120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C6EA6-4E58-493E-A27D-A00B4943AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5CF80C3-4EBD-4BF8-8816-9F0D87C4B922}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="568">
   <si>
     <t>Project name</t>
   </si>
@@ -1970,6 +1970,45 @@
   </si>
   <si>
     <t>Attachments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify forget password option </t>
+  </si>
+  <si>
+    <t>User should have forget password option</t>
+  </si>
+  <si>
+    <t>User don’t have forget password option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password forget option is not on log in page 
+</t>
+  </si>
+  <si>
+    <t>Bug_023</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>Bug_024</t>
+  </si>
+  <si>
+    <t>Skip button is not working</t>
+  </si>
+  <si>
+    <t>1.Enter URL- https://edu-connect-kappa.vercel.app/
+2.click on login
+3.click on quiz 
+4.click on skip button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip button should be working 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip button is not working
+</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2110,6 +2149,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3210,6 +3252,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBAD594-6C9E-4327-8B17-9F0F93507C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="29451300"/>
+          <a:ext cx="1819275" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1552715</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1305058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64DCFF8-50B7-F539-4B99-0CF1E21561AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="30832425"/>
+          <a:ext cx="1000265" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3837,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F144769-6D6A-4AB8-A0E6-5306651DFC99}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,16 +4361,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -6629,10 +6787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510BC989-A76A-46AC-B10F-754DECDA7C0D}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7495,6 +7653,67 @@
         <v>547</v>
       </c>
     </row>
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
